--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1090.41172024504</v>
+        <v>1173.727593881687</v>
       </c>
       <c r="AB2" t="n">
-        <v>1491.949421209241</v>
+        <v>1605.945875155832</v>
       </c>
       <c r="AC2" t="n">
-        <v>1349.559862413194</v>
+        <v>1452.67665479015</v>
       </c>
       <c r="AD2" t="n">
-        <v>1090411.72024504</v>
+        <v>1173727.593881687</v>
       </c>
       <c r="AE2" t="n">
-        <v>1491949.421209241</v>
+        <v>1605945.875155832</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.28798443355962e-06</v>
+        <v>2.177401589827185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.73133680555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1349559.862413194</v>
+        <v>1452676.65479015</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>523.1502435013116</v>
+        <v>575.1374131781952</v>
       </c>
       <c r="AB3" t="n">
-        <v>715.797242918351</v>
+        <v>786.9283819823211</v>
       </c>
       <c r="AC3" t="n">
-        <v>647.4825586819628</v>
+        <v>711.8250416668485</v>
       </c>
       <c r="AD3" t="n">
-        <v>523150.2435013116</v>
+        <v>575137.4131781951</v>
       </c>
       <c r="AE3" t="n">
-        <v>715797.242918351</v>
+        <v>786928.381982321</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.023988876455632e-06</v>
+        <v>3.42165361828733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.01085069444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>647482.5586819628</v>
+        <v>711825.0416668485</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>402.1640005843195</v>
+        <v>454.151080752652</v>
       </c>
       <c r="AB4" t="n">
-        <v>550.2585278229895</v>
+        <v>621.3895444174113</v>
       </c>
       <c r="AC4" t="n">
-        <v>497.7426262202568</v>
+        <v>562.0849984239159</v>
       </c>
       <c r="AD4" t="n">
-        <v>402164.0005843195</v>
+        <v>454151.080752652</v>
       </c>
       <c r="AE4" t="n">
-        <v>550258.5278229895</v>
+        <v>621389.5444174113</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.312023090122282e-06</v>
+        <v>3.908589747654266e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.763020833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>497742.6262202568</v>
+        <v>562084.9984239158</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.7651169537199</v>
+        <v>403.3378024260227</v>
       </c>
       <c r="AB5" t="n">
-        <v>494.9829929666439</v>
+        <v>551.8645752872902</v>
       </c>
       <c r="AC5" t="n">
-        <v>447.7425108309004</v>
+        <v>499.1953947686665</v>
       </c>
       <c r="AD5" t="n">
-        <v>361765.1169537199</v>
+        <v>403337.8024260227</v>
       </c>
       <c r="AE5" t="n">
-        <v>494982.9929666439</v>
+        <v>551864.5752872903</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.431718345201907e-06</v>
+        <v>4.110940515190216e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>447742.5108309004</v>
+        <v>499195.3947686665</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>363.1592296274353</v>
+        <v>404.731915099738</v>
       </c>
       <c r="AB6" t="n">
-        <v>496.8904794307316</v>
+        <v>553.772061751378</v>
       </c>
       <c r="AC6" t="n">
-        <v>449.4679494640297</v>
+        <v>500.9208334017958</v>
       </c>
       <c r="AD6" t="n">
-        <v>363159.2296274353</v>
+        <v>404731.915099738</v>
       </c>
       <c r="AE6" t="n">
-        <v>496890.4794307316</v>
+        <v>553772.061751378</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.431438247101097e-06</v>
+        <v>4.110466995453393e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>449467.9494640297</v>
+        <v>500920.8334017958</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>758.0593776943815</v>
+        <v>828.5227604008102</v>
       </c>
       <c r="AB2" t="n">
-        <v>1037.210283780893</v>
+        <v>1133.621392624878</v>
       </c>
       <c r="AC2" t="n">
-        <v>938.2203900306203</v>
+        <v>1025.430157960376</v>
       </c>
       <c r="AD2" t="n">
-        <v>758059.3776943815</v>
+        <v>828522.7604008102</v>
       </c>
       <c r="AE2" t="n">
-        <v>1037210.283780893</v>
+        <v>1133621.392624878</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.587968050191712e-06</v>
+        <v>2.75002878949247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.20095486111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>938220.3900306203</v>
+        <v>1025430.157960376</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.5976490647134</v>
+        <v>447.960009948705</v>
       </c>
       <c r="AB3" t="n">
-        <v>557.693085389517</v>
+        <v>612.9186482126836</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.4676400471021</v>
+        <v>554.4225526639898</v>
       </c>
       <c r="AD3" t="n">
-        <v>407597.6490647134</v>
+        <v>447960.009948705</v>
       </c>
       <c r="AE3" t="n">
-        <v>557693.085389517</v>
+        <v>612918.6482126836</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.281261320934131e-06</v>
+        <v>3.950667841312733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.188368055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>504467.6400471021</v>
+        <v>554422.5526639898</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>337.2829112602437</v>
+        <v>377.5599312896637</v>
       </c>
       <c r="AB4" t="n">
-        <v>461.4853590581425</v>
+        <v>516.5941547591116</v>
       </c>
       <c r="AC4" t="n">
-        <v>417.4418440884021</v>
+        <v>467.291133673351</v>
       </c>
       <c r="AD4" t="n">
-        <v>337282.9112602437</v>
+        <v>377559.9312896637</v>
       </c>
       <c r="AE4" t="n">
-        <v>461485.3590581425</v>
+        <v>516594.1547591116</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.485540405305852e-06</v>
+        <v>4.30443652264456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.433159722222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>417441.8440884021</v>
+        <v>467291.133673351</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>338.7399995746323</v>
+        <v>379.0170196040523</v>
       </c>
       <c r="AB5" t="n">
-        <v>463.4790115720888</v>
+        <v>518.5878072730577</v>
       </c>
       <c r="AC5" t="n">
-        <v>419.245225204526</v>
+        <v>469.094514789475</v>
       </c>
       <c r="AD5" t="n">
-        <v>338739.9995746323</v>
+        <v>379017.0196040523</v>
       </c>
       <c r="AE5" t="n">
-        <v>463479.0115720888</v>
+        <v>518587.8072730578</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.485347233594862e-06</v>
+        <v>4.304101989612568e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.433159722222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>419245.225204526</v>
+        <v>469094.514789475</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.2742727508123</v>
+        <v>347.6805086137969</v>
       </c>
       <c r="AB2" t="n">
-        <v>413.5849953774108</v>
+        <v>475.7118104668952</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.1130238887766</v>
+        <v>430.3105429416533</v>
       </c>
       <c r="AD2" t="n">
-        <v>302274.2727508122</v>
+        <v>347680.5086137969</v>
       </c>
       <c r="AE2" t="n">
-        <v>413584.9953774108</v>
+        <v>475711.8104668952</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.49931951104663e-06</v>
+        <v>4.72925034276486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.357638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>374113.0238887767</v>
+        <v>430310.5429416533</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>304.2301454431172</v>
+        <v>349.6363813061018</v>
       </c>
       <c r="AB3" t="n">
-        <v>416.2611066820358</v>
+        <v>478.3879217715202</v>
       </c>
       <c r="AC3" t="n">
-        <v>376.5337308864341</v>
+        <v>432.7312499393106</v>
       </c>
       <c r="AD3" t="n">
-        <v>304230.1454431172</v>
+        <v>349636.3813061018</v>
       </c>
       <c r="AE3" t="n">
-        <v>416261.1066820358</v>
+        <v>478387.9217715202</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.498565080836309e-06</v>
+        <v>4.727822798461309e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.361979166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>376533.730886434</v>
+        <v>432731.2499393106</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>412.5920863036666</v>
+        <v>459.9899888525082</v>
       </c>
       <c r="AB2" t="n">
-        <v>564.526694758873</v>
+        <v>629.3785960740798</v>
       </c>
       <c r="AC2" t="n">
-        <v>510.6490593292776</v>
+        <v>569.3115862031763</v>
       </c>
       <c r="AD2" t="n">
-        <v>412592.0863036666</v>
+        <v>459989.9888525082</v>
       </c>
       <c r="AE2" t="n">
-        <v>564526.694758873</v>
+        <v>629378.5960740799</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.186458087773442e-06</v>
+        <v>3.983251792368858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>510649.0593292776</v>
+        <v>569311.5862031763</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>306.8921248842391</v>
+        <v>354.2899379245298</v>
       </c>
       <c r="AB3" t="n">
-        <v>419.9033443916234</v>
+        <v>484.7551232372819</v>
       </c>
       <c r="AC3" t="n">
-        <v>379.8283585409313</v>
+        <v>438.4907746336035</v>
       </c>
       <c r="AD3" t="n">
-        <v>306892.1248842391</v>
+        <v>354289.9379245298</v>
       </c>
       <c r="AE3" t="n">
-        <v>419903.3443916233</v>
+        <v>484755.1232372819</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.526706682022822e-06</v>
+        <v>4.603110837677603e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.856336805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>379828.3585409313</v>
+        <v>438490.7746336035</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>306.2736321620024</v>
+        <v>350.2016306513183</v>
       </c>
       <c r="AB2" t="n">
-        <v>419.057095363086</v>
+        <v>479.1613208626866</v>
       </c>
       <c r="AC2" t="n">
-        <v>379.0628743319595</v>
+        <v>433.4308369066886</v>
       </c>
       <c r="AD2" t="n">
-        <v>306273.6321620024</v>
+        <v>350201.6306513184</v>
       </c>
       <c r="AE2" t="n">
-        <v>419057.095363086</v>
+        <v>479161.3208626866</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.419681147577708e-06</v>
+        <v>4.741795426854948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>379062.8743319595</v>
+        <v>433430.8369066886</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>825.2250012858044</v>
+        <v>896.454946715917</v>
       </c>
       <c r="AB2" t="n">
-        <v>1129.109253116863</v>
+        <v>1226.569206897753</v>
       </c>
       <c r="AC2" t="n">
-        <v>1021.348650714179</v>
+        <v>1109.507163292125</v>
       </c>
       <c r="AD2" t="n">
-        <v>825225.0012858044</v>
+        <v>896454.946715917</v>
       </c>
       <c r="AE2" t="n">
-        <v>1129109.253116863</v>
+        <v>1226569.206897753</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.508136458428663e-06</v>
+        <v>2.594720434754372e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.77387152777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1021348.650714179</v>
+        <v>1109507.163292125</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>432.9860345822401</v>
+        <v>483.6939748317283</v>
       </c>
       <c r="AB3" t="n">
-        <v>592.4305945111163</v>
+        <v>661.8114354369048</v>
       </c>
       <c r="AC3" t="n">
-        <v>535.8898500525362</v>
+        <v>598.6490808969894</v>
       </c>
       <c r="AD3" t="n">
-        <v>432986.03458224</v>
+        <v>483693.9748317283</v>
       </c>
       <c r="AE3" t="n">
-        <v>592430.5945111163</v>
+        <v>661811.4354369049</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.213101234788596e-06</v>
+        <v>3.807599084282548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.385850694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>535889.8500525362</v>
+        <v>598649.0808969894</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>344.9931948667492</v>
+        <v>385.6107694807929</v>
       </c>
       <c r="AB4" t="n">
-        <v>472.0349092422693</v>
+        <v>527.6096667501283</v>
       </c>
       <c r="AC4" t="n">
-        <v>426.9845600093424</v>
+        <v>477.2553406603135</v>
       </c>
       <c r="AD4" t="n">
-        <v>344993.1948667492</v>
+        <v>385610.7694807929</v>
       </c>
       <c r="AE4" t="n">
-        <v>472034.9092422693</v>
+        <v>527609.6667501284</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.464648747656744e-06</v>
+        <v>4.240381852912563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.428819444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>426984.5600093424</v>
+        <v>477255.3406603135</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>345.1994732213002</v>
+        <v>385.8170478353439</v>
       </c>
       <c r="AB5" t="n">
-        <v>472.3171483873247</v>
+        <v>527.8919058951838</v>
       </c>
       <c r="AC5" t="n">
-        <v>427.2398626465188</v>
+        <v>477.51064329749</v>
       </c>
       <c r="AD5" t="n">
-        <v>345199.4732213002</v>
+        <v>385817.0478353439</v>
       </c>
       <c r="AE5" t="n">
-        <v>472317.1483873246</v>
+        <v>527891.9058951838</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.467616012838978e-06</v>
+        <v>4.24548697689564e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.41796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>427239.8626465187</v>
+        <v>477510.64329749</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.5222518691436</v>
+        <v>359.1417639120996</v>
       </c>
       <c r="AB2" t="n">
-        <v>420.7655119316103</v>
+        <v>491.3936056009309</v>
       </c>
       <c r="AC2" t="n">
-        <v>380.6082420209617</v>
+        <v>444.4956895576343</v>
       </c>
       <c r="AD2" t="n">
-        <v>307522.2518691436</v>
+        <v>359141.7639120996</v>
       </c>
       <c r="AE2" t="n">
-        <v>420765.5119316103</v>
+        <v>491393.6056009309</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.330777384978183e-06</v>
+        <v>4.672417070355417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.66623263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>380608.2420209617</v>
+        <v>444495.6895576343</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>565.0954922663524</v>
+        <v>623.9810027322421</v>
       </c>
       <c r="AB2" t="n">
-        <v>773.1885827724539</v>
+        <v>853.758336037259</v>
       </c>
       <c r="AC2" t="n">
-        <v>699.3965496096415</v>
+        <v>772.2768387032129</v>
       </c>
       <c r="AD2" t="n">
-        <v>565095.4922663524</v>
+        <v>623981.0027322421</v>
       </c>
       <c r="AE2" t="n">
-        <v>773188.5827724539</v>
+        <v>853758.3360372591</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.856222712227052e-06</v>
+        <v>3.287508353509326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.63411458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>699396.5496096415</v>
+        <v>772276.8387032129</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>324.644764799483</v>
+        <v>373.6306826664861</v>
       </c>
       <c r="AB3" t="n">
-        <v>444.1932895148583</v>
+        <v>511.217983446665</v>
       </c>
       <c r="AC3" t="n">
-        <v>401.8001053927567</v>
+        <v>462.4280566054607</v>
       </c>
       <c r="AD3" t="n">
-        <v>324644.764799483</v>
+        <v>373630.6826664861</v>
       </c>
       <c r="AE3" t="n">
-        <v>444193.2895148583</v>
+        <v>511217.983446665</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.501268314578189e-06</v>
+        <v>4.429932046612175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.6328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>401800.1053927568</v>
+        <v>462428.0566054607</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>321.6766288731881</v>
+        <v>361.0189767050195</v>
       </c>
       <c r="AB4" t="n">
-        <v>440.1321549955861</v>
+        <v>493.9620909609873</v>
       </c>
       <c r="AC4" t="n">
-        <v>398.1265598521659</v>
+        <v>446.8190422798189</v>
       </c>
       <c r="AD4" t="n">
-        <v>321676.628873188</v>
+        <v>361018.9767050195</v>
       </c>
       <c r="AE4" t="n">
-        <v>440132.1549955861</v>
+        <v>493962.0909609873</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.518384612573313e-06</v>
+        <v>4.460246282220583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.576388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>398126.5598521659</v>
+        <v>446819.0422798189</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>686.3481150812374</v>
+        <v>756.2781160834453</v>
       </c>
       <c r="AB2" t="n">
-        <v>939.0917705959642</v>
+        <v>1034.773083061094</v>
       </c>
       <c r="AC2" t="n">
-        <v>849.4661700338628</v>
+        <v>936.0157923268861</v>
       </c>
       <c r="AD2" t="n">
-        <v>686348.1150812374</v>
+        <v>756278.1160834453</v>
       </c>
       <c r="AE2" t="n">
-        <v>939091.7705959643</v>
+        <v>1034773.083061094</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.671596013788852e-06</v>
+        <v>2.915117485613826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.65842013888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>849466.1700338628</v>
+        <v>936015.7923268861</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.4768133724934</v>
+        <v>421.40243098705</v>
       </c>
       <c r="AB3" t="n">
-        <v>508.2709644566172</v>
+        <v>576.5813970396537</v>
       </c>
       <c r="AC3" t="n">
-        <v>459.7622969716559</v>
+        <v>521.5532777432616</v>
       </c>
       <c r="AD3" t="n">
-        <v>371476.8133724934</v>
+        <v>421402.4309870499</v>
       </c>
       <c r="AE3" t="n">
-        <v>508270.9644566172</v>
+        <v>576581.3970396536</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.357141485846098e-06</v>
+        <v>4.110648927596492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.977864583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>459762.2969716559</v>
+        <v>521553.2777432615</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.1246274389276</v>
+        <v>373.0481428682095</v>
       </c>
       <c r="AB4" t="n">
-        <v>455.795811683283</v>
+        <v>510.4209267948209</v>
       </c>
       <c r="AC4" t="n">
-        <v>412.2952991296691</v>
+        <v>461.7070699217925</v>
       </c>
       <c r="AD4" t="n">
-        <v>333124.6274389276</v>
+        <v>373048.1428682095</v>
       </c>
       <c r="AE4" t="n">
-        <v>455795.811683283</v>
+        <v>510420.9267948209</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.492768530595299e-06</v>
+        <v>4.34717065079346e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.487413194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>412295.2991296691</v>
+        <v>461707.0699217925</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1001.339334630218</v>
+        <v>1073.701401405714</v>
       </c>
       <c r="AB2" t="n">
-        <v>1370.076653614725</v>
+        <v>1469.085625766038</v>
       </c>
       <c r="AC2" t="n">
-        <v>1239.318460708395</v>
+        <v>1328.878155517552</v>
       </c>
       <c r="AD2" t="n">
-        <v>1001339.334630218</v>
+        <v>1073701.401405714</v>
       </c>
       <c r="AE2" t="n">
-        <v>1370076.653614725</v>
+        <v>1469085.625766038</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.357853779703477e-06</v>
+        <v>2.308261431864501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.04123263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1239318.460708395</v>
+        <v>1328878.155517552</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.1336871729964</v>
+        <v>536.8208137922433</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.7813133778538</v>
+        <v>734.5019202934</v>
       </c>
       <c r="AC3" t="n">
-        <v>600.4309564519951</v>
+        <v>664.4020879005168</v>
       </c>
       <c r="AD3" t="n">
-        <v>485133.6871729963</v>
+        <v>536820.8137922433</v>
       </c>
       <c r="AE3" t="n">
-        <v>663781.3133778538</v>
+        <v>734501.9202933999</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.086001457383391e-06</v>
+        <v>3.546064224929073e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>600430.9564519952</v>
+        <v>664402.0879005168</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>380.7794384635562</v>
+        <v>432.3812242282314</v>
       </c>
       <c r="AB4" t="n">
-        <v>520.9992265090635</v>
+        <v>591.603066302412</v>
       </c>
       <c r="AC4" t="n">
-        <v>471.2757915580447</v>
+        <v>535.1412999746276</v>
       </c>
       <c r="AD4" t="n">
-        <v>380779.4384635562</v>
+        <v>432381.2242282314</v>
       </c>
       <c r="AE4" t="n">
-        <v>520999.2265090635</v>
+        <v>591603.066302412</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.368150447648919e-06</v>
+        <v>4.025698808567123e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.624131944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>471275.7915580447</v>
+        <v>535141.2999746276</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>354.9741991640259</v>
+        <v>396.2386491134027</v>
       </c>
       <c r="AB5" t="n">
-        <v>485.6913596526359</v>
+        <v>542.1512005324236</v>
       </c>
       <c r="AC5" t="n">
-        <v>439.337657959492</v>
+        <v>490.4090508675971</v>
       </c>
       <c r="AD5" t="n">
-        <v>354974.1991640259</v>
+        <v>396238.6491134027</v>
       </c>
       <c r="AE5" t="n">
-        <v>485691.3596526359</v>
+        <v>542151.2005324236</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.448145991920332e-06</v>
+        <v>4.161685932013534e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.342013888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>439337.6579594921</v>
+        <v>490409.0508675971</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>458.1497191511211</v>
+        <v>515.7132564634734</v>
       </c>
       <c r="AB2" t="n">
-        <v>626.8606578816726</v>
+        <v>705.6216291564685</v>
       </c>
       <c r="AC2" t="n">
-        <v>567.033956497904</v>
+        <v>638.2780912159509</v>
       </c>
       <c r="AD2" t="n">
-        <v>458149.7191511211</v>
+        <v>515713.2564634734</v>
       </c>
       <c r="AE2" t="n">
-        <v>626860.6578816726</v>
+        <v>705621.6291564686</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.066340014431256e-06</v>
+        <v>3.726100024601687e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.69227430555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>567033.956497904</v>
+        <v>638278.0912159509</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.4263652609096</v>
+        <v>359.381756212108</v>
       </c>
       <c r="AB3" t="n">
-        <v>426.1072921115515</v>
+        <v>491.7219736535152</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.4402101977648</v>
+        <v>444.7927186241475</v>
       </c>
       <c r="AD3" t="n">
-        <v>311426.3652609095</v>
+        <v>359381.756212108</v>
       </c>
       <c r="AE3" t="n">
-        <v>426107.2921115515</v>
+        <v>491721.9736535152</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.524406716817371e-06</v>
+        <v>4.552102685881952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.752170138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>385440.2101977648</v>
+        <v>444792.7186241475</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>319.9280327099291</v>
+        <v>366.0160430067182</v>
       </c>
       <c r="AB2" t="n">
-        <v>437.739648582397</v>
+        <v>500.7992975299778</v>
       </c>
       <c r="AC2" t="n">
-        <v>395.9623908931477</v>
+        <v>453.0037154499445</v>
       </c>
       <c r="AD2" t="n">
-        <v>319928.0327099292</v>
+        <v>366016.0430067182</v>
       </c>
       <c r="AE2" t="n">
-        <v>437739.648582397</v>
+        <v>500799.2975299777</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.453539182951796e-06</v>
+        <v>4.577519859406093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.381510416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>395962.3908931477</v>
+        <v>453003.7154499445</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.0519249815276</v>
+        <v>344.0588964879836</v>
       </c>
       <c r="AB3" t="n">
-        <v>420.1219899346162</v>
+        <v>470.7565609821068</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.0261368601719</v>
+        <v>425.8282155129568</v>
       </c>
       <c r="AD3" t="n">
-        <v>307051.9249815276</v>
+        <v>344058.8964879836</v>
       </c>
       <c r="AE3" t="n">
-        <v>420121.9899346163</v>
+        <v>470756.5609821068</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.52024948579941e-06</v>
+        <v>4.701979961055891e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.131944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>380026.1368601719</v>
+        <v>425828.2155129568</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.4088756598256</v>
+        <v>344.2429888922891</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.664432665125</v>
+        <v>471.0084443312613</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.5666341792071</v>
+        <v>426.0560594687884</v>
       </c>
       <c r="AD2" t="n">
-        <v>299408.8756598256</v>
+        <v>344242.9888922891</v>
       </c>
       <c r="AE2" t="n">
-        <v>409664.4326651251</v>
+        <v>471008.4443312613</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.46840631369622e-06</v>
+        <v>4.746836878649351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.646267361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>370566.6341792071</v>
+        <v>426056.0594687884</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.3381798984604</v>
+        <v>372.7505803990762</v>
       </c>
       <c r="AB2" t="n">
-        <v>441.0373182939351</v>
+        <v>510.013788697023</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.9453356357251</v>
+        <v>461.3387885126265</v>
       </c>
       <c r="AD2" t="n">
-        <v>322338.1798984604</v>
+        <v>372750.5803990762</v>
       </c>
       <c r="AE2" t="n">
-        <v>441037.3182939351</v>
+        <v>510013.7886970229</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.174332304540819e-06</v>
+        <v>4.484776335762981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.75347222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>398945.3356357251</v>
+        <v>461338.7885126265</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>627.2476969770235</v>
+        <v>686.6238014521273</v>
       </c>
       <c r="AB2" t="n">
-        <v>858.227971219348</v>
+        <v>939.46897685104</v>
       </c>
       <c r="AC2" t="n">
-        <v>776.3198981766957</v>
+        <v>849.8073762533664</v>
       </c>
       <c r="AD2" t="n">
-        <v>627247.6969770235</v>
+        <v>686623.8014521273</v>
       </c>
       <c r="AE2" t="n">
-        <v>858227.971219348</v>
+        <v>939468.97685104</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.763421019200441e-06</v>
+        <v>3.098261167698296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.11805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>776319.8981766957</v>
+        <v>849807.3762533665</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>345.7628533904149</v>
+        <v>395.2286423867802</v>
       </c>
       <c r="AB3" t="n">
-        <v>473.0879899892864</v>
+        <v>540.7692647707064</v>
       </c>
       <c r="AC3" t="n">
-        <v>427.9371362078722</v>
+        <v>489.1590051154194</v>
       </c>
       <c r="AD3" t="n">
-        <v>345762.8533904148</v>
+        <v>395228.6423867802</v>
       </c>
       <c r="AE3" t="n">
-        <v>473087.9899892863</v>
+        <v>540769.2647707064</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.435622497787709e-06</v>
+        <v>4.279292648722955e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.773871527777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>427937.1362078722</v>
+        <v>489159.0051154194</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>327.4569370409766</v>
+        <v>367.1831817762978</v>
       </c>
       <c r="AB4" t="n">
-        <v>448.0410276399531</v>
+        <v>502.396228285045</v>
       </c>
       <c r="AC4" t="n">
-        <v>405.280620791527</v>
+        <v>454.4482373750545</v>
       </c>
       <c r="AD4" t="n">
-        <v>327456.9370409766</v>
+        <v>367183.1817762978</v>
       </c>
       <c r="AE4" t="n">
-        <v>448041.0276399531</v>
+        <v>502396.228285045</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.504457662383739e-06</v>
+        <v>4.400233317524044e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.532986111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>405280.620791527</v>
+        <v>454448.2373750545</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>909.4997019827821</v>
+        <v>981.2197980436705</v>
       </c>
       <c r="AB2" t="n">
-        <v>1244.417616547864</v>
+        <v>1342.548216045701</v>
       </c>
       <c r="AC2" t="n">
-        <v>1125.652145775629</v>
+        <v>1214.417298584554</v>
       </c>
       <c r="AD2" t="n">
-        <v>909499.7019827821</v>
+        <v>981219.7980436705</v>
       </c>
       <c r="AE2" t="n">
-        <v>1244417.616547864</v>
+        <v>1342548.216045701</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.431304522889776e-06</v>
+        <v>2.447371226136765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.38802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1125652.145775629</v>
+        <v>1214417.298584554</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>459.3862646333965</v>
+        <v>510.6757984954744</v>
       </c>
       <c r="AB3" t="n">
-        <v>628.5525539630584</v>
+        <v>698.7291569276914</v>
       </c>
       <c r="AC3" t="n">
-        <v>568.5643803918736</v>
+        <v>632.0434268630428</v>
       </c>
       <c r="AD3" t="n">
-        <v>459386.2646333965</v>
+        <v>510675.7984954744</v>
       </c>
       <c r="AE3" t="n">
-        <v>628552.5539630584</v>
+        <v>698729.1569276914</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.145960384580613e-06</v>
+        <v>3.669353106666896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.596354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>568564.3803918735</v>
+        <v>632043.4268630428</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>359.6544067149221</v>
+        <v>400.6007824585637</v>
       </c>
       <c r="AB4" t="n">
-        <v>492.0950260999567</v>
+        <v>548.1196638190139</v>
       </c>
       <c r="AC4" t="n">
-        <v>445.1301674686831</v>
+        <v>495.8078923949063</v>
       </c>
       <c r="AD4" t="n">
-        <v>359654.4067149221</v>
+        <v>400600.7824585637</v>
       </c>
       <c r="AE4" t="n">
-        <v>492095.0260999567</v>
+        <v>548119.6638190139</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.426850220008163e-06</v>
+        <v>4.149643422211868e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.485243055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>445130.167468683</v>
+        <v>495807.8923949063</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.9921189959126</v>
+        <v>390.9384947395542</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.8746577727584</v>
+        <v>534.8992954918156</v>
       </c>
       <c r="AC5" t="n">
-        <v>433.171532539729</v>
+        <v>483.8492574659522</v>
       </c>
       <c r="AD5" t="n">
-        <v>349992.1189959125</v>
+        <v>390938.4947395542</v>
       </c>
       <c r="AE5" t="n">
-        <v>478874.6577727585</v>
+        <v>534899.2954918155</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.459873754713834e-06</v>
+        <v>4.206109986336751e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.372395833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>433171.532539729</v>
+        <v>483849.2574659522</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>365.4354259444813</v>
+        <v>422.3156738656915</v>
       </c>
       <c r="AB2" t="n">
-        <v>500.0048716504083</v>
+        <v>577.8309362356432</v>
       </c>
       <c r="AC2" t="n">
-        <v>452.2851084613375</v>
+        <v>522.6835626721253</v>
       </c>
       <c r="AD2" t="n">
-        <v>365435.4259444813</v>
+        <v>422315.6738656915</v>
       </c>
       <c r="AE2" t="n">
-        <v>500004.8716504084</v>
+        <v>577830.9362356432</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.879015140541469e-06</v>
+        <v>4.027594902630965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.08203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>452285.1084613375</v>
+        <v>522683.5626721253</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>359.7157079075142</v>
+        <v>406.6069277829113</v>
       </c>
       <c r="AB2" t="n">
-        <v>492.1789010960793</v>
+        <v>556.3375368242171</v>
       </c>
       <c r="AC2" t="n">
-        <v>445.2060375528949</v>
+        <v>503.2414631343501</v>
       </c>
       <c r="AD2" t="n">
-        <v>359715.7079075142</v>
+        <v>406606.9277829113</v>
       </c>
       <c r="AE2" t="n">
-        <v>492178.9010960793</v>
+        <v>556337.5368242171</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.317968023571746e-06</v>
+        <v>4.270699701959362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.78515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>445206.0375528949</v>
+        <v>503241.4631343501</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.098032981476</v>
+        <v>348.9039120023014</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.3438563498552</v>
+        <v>477.3857249557955</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.8948988315702</v>
+        <v>431.8247013810866</v>
       </c>
       <c r="AD3" t="n">
-        <v>302098.032981476</v>
+        <v>348903.9120023014</v>
       </c>
       <c r="AE3" t="n">
-        <v>413343.8563498553</v>
+        <v>477385.7249557954</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.526678161227762e-06</v>
+        <v>4.655234049982846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.975694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>373894.8988315702</v>
+        <v>431824.7013810866</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.8262431653594</v>
+        <v>563.3951538784223</v>
       </c>
       <c r="AB2" t="n">
-        <v>704.407978429724</v>
+        <v>770.8621047764526</v>
       </c>
       <c r="AC2" t="n">
-        <v>637.1802696111976</v>
+        <v>697.2921074083463</v>
       </c>
       <c r="AD2" t="n">
-        <v>514826.2431653594</v>
+        <v>563395.1538784223</v>
       </c>
       <c r="AE2" t="n">
-        <v>704407.978429724</v>
+        <v>770862.1047764526</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.957711303678434e-06</v>
+        <v>3.497308373616718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.15451388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>637180.2696111975</v>
+        <v>697292.1074083463</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>316.5720538000856</v>
+        <v>365.0555341500259</v>
       </c>
       <c r="AB3" t="n">
-        <v>433.1478501826088</v>
+        <v>499.4850869375913</v>
       </c>
       <c r="AC3" t="n">
-        <v>391.8088272880057</v>
+        <v>451.8149312719891</v>
       </c>
       <c r="AD3" t="n">
-        <v>316572.0538000856</v>
+        <v>365055.5341500259</v>
       </c>
       <c r="AE3" t="n">
-        <v>433147.8501826088</v>
+        <v>499485.0869375913</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.519486705016668e-06</v>
+        <v>4.500879130704615e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.667534722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>391808.8272880057</v>
+        <v>451814.9312719891</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>318.1339719081398</v>
+        <v>366.61745225808</v>
       </c>
       <c r="AB4" t="n">
-        <v>435.2849354450124</v>
+        <v>501.6221721999948</v>
       </c>
       <c r="AC4" t="n">
-        <v>393.7419521323834</v>
+        <v>453.7480561163669</v>
       </c>
       <c r="AD4" t="n">
-        <v>318133.9719081398</v>
+        <v>366617.4522580801</v>
       </c>
       <c r="AE4" t="n">
-        <v>435284.9354450124</v>
+        <v>501622.1721999948</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.518983592531143e-06</v>
+        <v>4.499980356965509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.669704861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>393741.9521323834</v>
+        <v>453748.0561163669</v>
       </c>
     </row>
   </sheetData>
